--- a/Commissions_BejaouiS_SaidiA_details.xlsx
+++ b/Commissions_BejaouiS_SaidiA_details.xlsx
@@ -470,22 +470,22 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>8819.291520000001</v>
+        <v>8824.57242</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0345</v>
+        <v>22.0395</v>
       </c>
       <c r="D2" t="n">
-        <v>3207.84013</v>
+        <v>3217.162855</v>
       </c>
       <c r="E2" t="n">
-        <v>7880.87622</v>
+        <v>7225.961219999998</v>
       </c>
       <c r="F2" t="n">
-        <v>716.4350000000001</v>
+        <v>705.38</v>
       </c>
       <c r="G2" t="n">
-        <v>3078.436555</v>
+        <v>2909.180305</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>9328.369820000002</v>
+        <v>9651.058440000001</v>
       </c>
       <c r="C3" t="n">
-        <v>436.6977000000001</v>
+        <v>501.55178</v>
       </c>
       <c r="D3" t="n">
-        <v>3850.441305</v>
+        <v>3963.5405</v>
       </c>
       <c r="E3" t="n">
-        <v>3734.440339999999</v>
+        <v>3496.675160000001</v>
       </c>
       <c r="F3" t="n">
-        <v>2408.62828</v>
+        <v>2379.62328</v>
       </c>
       <c r="G3" t="n">
-        <v>2937.924225</v>
+        <v>2863.98043</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>23132.80783999999</v>
+        <v>17905.55283999999</v>
       </c>
       <c r="C4" t="n">
-        <v>526.26414</v>
+        <v>579.33564</v>
       </c>
       <c r="D4" t="n">
-        <v>7346.334029999999</v>
+        <v>6066.056029999997</v>
       </c>
       <c r="E4" t="n">
-        <v>10320.55531999999</v>
+        <v>9718.462439999988</v>
       </c>
       <c r="F4" t="n">
-        <v>415.098</v>
+        <v>411.592</v>
       </c>
       <c r="G4" t="n">
-        <v>3937.687829999998</v>
+        <v>3785.411609999997</v>
       </c>
     </row>
     <row r="5">

--- a/Commissions_BejaouiS_SaidiA_details.xlsx
+++ b/Commissions_BejaouiS_SaidiA_details.xlsx
@@ -470,22 +470,22 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>8824.57242</v>
+        <v>8975.593940000001</v>
       </c>
       <c r="C2" t="n">
         <v>22.0395</v>
       </c>
       <c r="D2" t="n">
-        <v>3217.162855</v>
+        <v>3254.918235</v>
       </c>
       <c r="E2" t="n">
-        <v>7225.961219999998</v>
+        <v>8136.58122</v>
       </c>
       <c r="F2" t="n">
-        <v>705.38</v>
+        <v>716.4350000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>2909.180305</v>
+        <v>3142.362805</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>3963.5405</v>
       </c>
       <c r="E3" t="n">
-        <v>3496.675160000001</v>
+        <v>3610.69356</v>
       </c>
       <c r="F3" t="n">
-        <v>2379.62328</v>
+        <v>2408.62828</v>
       </c>
       <c r="G3" t="n">
-        <v>2863.98043</v>
+        <v>2906.98753</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>17905.55283999999</v>
+        <v>23088.57683999999</v>
       </c>
       <c r="C4" t="n">
         <v>579.33564</v>
       </c>
       <c r="D4" t="n">
-        <v>6066.056029999997</v>
+        <v>7361.812029999999</v>
       </c>
       <c r="E4" t="n">
-        <v>9718.462439999988</v>
+        <v>11524.50843999999</v>
       </c>
       <c r="F4" t="n">
-        <v>411.592</v>
+        <v>415.098</v>
       </c>
       <c r="G4" t="n">
-        <v>3785.411609999997</v>
+        <v>4238.676109999997</v>
       </c>
     </row>
     <row r="5">

--- a/Commissions_BejaouiS_SaidiA_details.xlsx
+++ b/Commissions_BejaouiS_SaidiA_details.xlsx
@@ -470,7 +470,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>8975.593940000001</v>
+        <v>7975.593940000001</v>
       </c>
       <c r="C2" t="n">
         <v>22.0395</v>
@@ -479,7 +479,7 @@
         <v>3254.918235</v>
       </c>
       <c r="E2" t="n">
-        <v>8136.58122</v>
+        <v>7136.58122</v>
       </c>
       <c r="F2" t="n">
         <v>716.4350000000001</v>
@@ -493,7 +493,7 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>9651.058440000001</v>
+        <v>9451.058440000001</v>
       </c>
       <c r="C3" t="n">
         <v>501.55178</v>
@@ -502,7 +502,7 @@
         <v>3963.5405</v>
       </c>
       <c r="E3" t="n">
-        <v>3610.69356</v>
+        <v>2610.69356</v>
       </c>
       <c r="F3" t="n">
         <v>2408.62828</v>
@@ -516,7 +516,7 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>23088.57683999999</v>
+        <v>22488.57683999999</v>
       </c>
       <c r="C4" t="n">
         <v>579.33564</v>
@@ -525,7 +525,7 @@
         <v>7361.812029999999</v>
       </c>
       <c r="E4" t="n">
-        <v>11524.50843999999</v>
+        <v>11724.50843999999</v>
       </c>
       <c r="F4" t="n">
         <v>415.098</v>
@@ -539,22 +539,22 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>22711.6594</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>662.42806</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7559.128879999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8363.784939999998</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2920.302589999996</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4701.097529999997</v>
       </c>
     </row>
     <row r="6">
@@ -562,19 +562,19 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5812.581060000004</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1059.48661</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4180.734980000007</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>733.99842</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
